--- a/biology/Microbiologie/Cycloposthiidae/Cycloposthiidae.xlsx
+++ b/biology/Microbiologie/Cycloposthiidae/Cycloposthiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cycloposthiidae sont une famille de Ciliés de la classe des Litostomatea et non attribués à un ordre par GBIF.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Cycloposthium, composé du préfixe cycl-, « cercle », du suffixe -posth-, « pénis, prépuce », et du suffixe latin -ium, « relatif à », en référence probable à la morphologie de cet organisme.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cycloposthiidae ont une taille, petite à grande[note 1]. Leur forme est allongée, souvent ovoïde, avec plusieurs genres ayant des projections  inhabituelles, en forme de doigts (par exemple chez les genres Arachnodiniella, Cycloposthium, Phalodinium). Ils nagent librement dans leur milieu de vie. Leurs cils somatiques sont généralement non rétractables, avec de zéro à quatre touffes caudales. On note à minima une grande plaque squelettique, mais il peut y en avoir jusqu'à quatre. Leur ciliature buccale est positionnée en zone adorale (c’est-à-dire près de la zone buccale) ; elle est rétractable, avec « avec une polybrachykinésie[note 2] adorale et une polybrachykinésie périvestibulaire[note 3] dorsale »Leur macronoyau est ellipsoïde à ellipsoïde allongé. Le micronoyau est présent. Ils ont une à plusieurs vacuoles contractiles. Un cytoprocte est présent. Ils se nourrissent de bactéries et de fibres végétales[1].
-Alexandre Strelkow (d), en 1928, a décrit avec une grande précision cinq espèces de Cycloposthium[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cycloposthiidae ont une taille, petite à grande[note 1]. Leur forme est allongée, souvent ovoïde, avec plusieurs genres ayant des projections  inhabituelles, en forme de doigts (par exemple chez les genres Arachnodiniella, Cycloposthium, Phalodinium). Ils nagent librement dans leur milieu de vie. Leurs cils somatiques sont généralement non rétractables, avec de zéro à quatre touffes caudales. On note à minima une grande plaque squelettique, mais il peut y en avoir jusqu'à quatre. Leur ciliature buccale est positionnée en zone adorale (c’est-à-dire près de la zone buccale) ; elle est rétractable, avec « avec une polybrachykinésie[note 2] adorale et une polybrachykinésie périvestibulaire[note 3] dorsale »Leur macronoyau est ellipsoïde à ellipsoïde allongé. Le micronoyau est présent. Ils ont une à plusieurs vacuoles contractiles. Un cytoprocte est présent. Ils se nourrissent de bactéries et de fibres végétales.
+Alexandre Strelkow (d), en 1928, a décrit avec une grande précision cinq espèces de Cycloposthium.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cycloposthiidae vivent dans des habitats terrestres, mais il peuvent aussi être endocommensaux dans le cæcum et le côlon des chevaux, des zèbres, des rhinocéros et des tapirs, et occasionnellement chez les éléphants, les capybaras et les hippopotames[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cycloposthiidae vivent dans des habitats terrestres, mais il peuvent aussi être endocommensaux dans le cæcum et le côlon des chevaux, des zèbres, des rhinocéros et des tapirs, et occasionnellement chez les éléphants, les capybaras et les hippopotames.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (4 juillet 2023)[3], leur aire de répartition est mondiale, et dans une grande diversité de milieux.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (4 juillet 2023), leur aire de répartition est mondiale, et dans une grande diversité de milieux.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 juillet 2023)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 juillet 2023) :
 Arachnodinella Aescht, 2001
 Cycloposthium Bundle, 1895 genre type
 Espèce type : Cycloposthium bipalmatum (Fiorentini, 1890) Bundle, 1895
@@ -648,7 +670,7 @@
 Prototapirella Cunha, 1918
 Trifascicularia Strelkow, 1931
 Triplumaria Hoare, 1937
-Selon Lynn (2010)[1] :
+Selon Lynn (2010) :
 Arachnodinella van Hoven, Gilchrist &amp; Hamilton- Attwell in Aescht, 2001
 Bertolinella Carpano, 1941
 Bozasella Buisson, 1923
@@ -693,9 +715,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Cycloposthiidae  Poche, 1913[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Cycloposthiidae  Poche, 1913.
 </t>
         </is>
       </c>
